--- a/html/Psykologsystemer_excel.XLSX
+++ b/html/Psykologsystemer_excel.XLSX
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A8190-9B7A-4DA9-B872-EEA11CCB2748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C01425-1822-4532-81FE-BBBF62529DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 12-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Psykologsystemer">'Opdateret d. 12-05-2025'!$A$1:$H$14</definedName>
+    <definedName name="Psykologsystemer">'Opdateret d. 16-05-2025'!$A$1:$H$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/html/Psykologsystemer_excel.XLSX
+++ b/html/Psykologsystemer_excel.XLSX
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C01425-1822-4532-81FE-BBBF62529DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F0D152-99EA-41A8-ABC5-C2E3BE1A1457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 16-05-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Psykologsystemer">'Opdateret d. 16-05-2025'!$A$1:$H$14</definedName>
+    <definedName name="Psykologsystemer">'Opdateret d. 02-12-2025'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>Standard</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>ETERA/EQUUS _Psykolog_ (CGM)</t>
-  </si>
-  <si>
-    <t>Kartoteksprogram (Dansk Software)</t>
   </si>
   <si>
     <t>Terapeut Booking _Psykolog_ (EasyPractice)</t>
@@ -457,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -465,7 +462,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,319 +484,283 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/html/Psykologsystemer_excel.XLSX
+++ b/html/Psykologsystemer_excel.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F0D152-99EA-41A8-ABC5-C2E3BE1A1457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2599EC59-873E-46BD-A7A7-C49085F982D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/html/Psykologsystemer_excel.XLSX
+++ b/html/Psykologsystemer_excel.XLSX
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GodkendteSystemer\html\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2599EC59-873E-46BD-A7A7-C49085F982D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCA1B13-6BD7-4A34-A1C5-48C68745D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 02-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Psykologsystemer">'Opdateret d. 02-12-2025'!$A$1:$G$14</definedName>
+    <definedName name="Psykologsystemer">'Opdateret d. 05-12-2025'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -460,9 +460,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -620,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>

--- a/html/Psykologsystemer_excel.XLSX
+++ b/html/Psykologsystemer_excel.XLSX
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Godkendelsesdatabase\GodkendteSystemer\html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCA1B13-6BD7-4A34-A1C5-48C68745D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A5F2D8-0DB4-40BC-B8B4-3A857D5FFC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30855" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Opdateret d. 05-12-2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Opdateret d. 19-12-2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Psykologsystemer">'Opdateret d. 05-12-2025'!$A$1:$G$14</definedName>
+    <definedName name="Psykologsystemer">'Opdateret d. 19-12-2025'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -460,9 +460,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -620,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -666,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
